--- a/public/template/outstock.xlsx
+++ b/public/template/outstock.xlsx
@@ -24,25 +24,25 @@
     <t>平台</t>
   </si>
   <si>
-    <t>SKU</t>
+    <t>商品条码</t>
   </si>
   <si>
     <t>出库数量</t>
   </si>
   <si>
-    <t>同事配镜</t>
+    <t>其他</t>
   </si>
   <si>
     <t>zeelool</t>
   </si>
   <si>
-    <t>FA0176-02</t>
+    <t>200928000000001</t>
   </si>
   <si>
-    <t>FA0249-01</t>
+    <t>200928000000002</t>
   </si>
   <si>
-    <t>FA0457-01</t>
+    <t>200928000000003</t>
   </si>
 </sst>
 </file>
@@ -50,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +65,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,7 +101,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,14 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,15 +131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,44 +142,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,31 +161,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,49 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,127 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +421,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -431,30 +446,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +474,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/public/template/outstock.xlsx
+++ b/public/template/outstock.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>出库分类</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>商品条码</t>
-  </si>
-  <si>
-    <t>出库数量</t>
   </si>
   <si>
     <t>其他</t>
@@ -50,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,9 +62,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,29 +168,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,100 +200,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,49 +214,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,133 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,15 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,6 +457,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -516,150 +513,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,20 +1010,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,50 +1033,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/outstock.xlsx
+++ b/public/template/outstock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>出库分类</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>商品条码</t>
-  </si>
-  <si>
-    <t>出库数量</t>
   </si>
   <si>
     <t>其他</t>
@@ -50,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,7 +62,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,22 +150,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,100 +200,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +214,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,157 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +412,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,17 +456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,9 +482,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,26 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,20 +1007,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,50 +1030,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/outstock.xlsx
+++ b/public/template/outstock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,72 +75,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,6 +91,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -160,6 +121,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -168,31 +143,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,181 +220,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +405,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,17 +456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,18 +482,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,26 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,130 +525,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,9 +657,6 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,14 +1010,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1041,7 +1038,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1052,7 +1049,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1063,7 +1060,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/public/template/outstock.xlsx
+++ b/public/template/outstock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,11 +75,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,28 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -121,20 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -143,32 +168,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,22 +193,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,85 +220,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,60 +388,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,18 +395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,39 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,11 +423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,11 +455,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +485,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,130 +525,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,6 +657,9 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,14 +1013,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1038,7 +1041,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1049,7 +1052,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1060,7 +1063,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
